--- a/pred_ohlcv/54_21/2020-01-20 LUNA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 LUNA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-15023.1802</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-15761.7016</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-15761.7016</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-15761.7016</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-15761.7016</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-15761.7016</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-15761.7016</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-15761.7016</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-15761.7016</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-15761.7016</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-15761.7016</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-15761.7016</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-32493.5098</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-5370.945499999999</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-10947.7991</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-11720.8214</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-7523.652000000001</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-11344.6412</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-7257.549900000002</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1814.561700000002</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-4152.233200000002</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1776.580100000002</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1776.580100000002</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-6219.009400000003</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-6219.009400000003</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-6219.009400000003</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-6219.009400000003</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1894.353899999997</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>17737.84902918</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-20790.79335614001</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-24477.80865614001</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-22250.26405614001</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>-25953.12095693001</v>
       </c>
       <c r="H1048">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-37642.89125693002</v>
       </c>
       <c r="H1049">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-41457.63515693002</v>
       </c>
       <c r="H1050">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-41457.63515693002</v>
       </c>
       <c r="H1051">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-36109.72135693001</v>
       </c>
       <c r="H1052">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-33323.10525693002</v>
       </c>
       <c r="H1053">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>-30359.84175693001</v>
       </c>
       <c r="H1054">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>-30057.35295693002</v>
       </c>
       <c r="H1057">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>487122.91620238</v>
       </c>
       <c r="H1108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>389047.32905369</v>
       </c>
       <c r="H1109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>500441.61965369</v>
       </c>
       <c r="H1110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>416513.73095369</v>
       </c>
       <c r="H1111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>278228.20855369</v>
       </c>
       <c r="H1112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>292568.62225369</v>
       </c>
       <c r="H1113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>374634.27005369</v>
       </c>
       <c r="H1114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>293152.77276577</v>
       </c>
       <c r="H1115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>329843.41536577</v>
       </c>
       <c r="H1116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>739492.90321547</v>
       </c>
       <c r="H1136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>837503.9743154701</v>
       </c>
       <c r="H1137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>818312.0071154701</v>
       </c>
       <c r="H1138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>900138.7448154702</v>
       </c>
       <c r="H1139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>891707.0493785501</v>
       </c>
       <c r="H1140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>877953.8258785502</v>
       </c>
       <c r="H1141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>832552.0003785501</v>
       </c>
       <c r="H1142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -30110,7 +30110,7 @@
         <v>752476.0831785501</v>
       </c>
       <c r="H1143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1144" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 LUNA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 LUNA ohlcv.xlsx
@@ -1874,7 +1874,7 @@
         <v>-1814.561700000002</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-4152.233200000002</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1776.580100000002</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1776.580100000002</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-6219.009400000003</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-6219.009400000003</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-6219.009400000003</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-6219.009400000003</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1894.353899999997</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>17737.84902918</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>487122.91620238</v>
       </c>
       <c r="H1108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>389047.32905369</v>
       </c>
       <c r="H1109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>500441.61965369</v>
       </c>
       <c r="H1110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>416513.73095369</v>
       </c>
       <c r="H1111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>278228.20855369</v>
       </c>
       <c r="H1112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>292568.62225369</v>
       </c>
       <c r="H1113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>374634.27005369</v>
       </c>
       <c r="H1114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>293152.77276577</v>
       </c>
       <c r="H1115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>329843.41536577</v>
       </c>
       <c r="H1116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>670257.50213301</v>
       </c>
       <c r="H1129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>739492.90321547</v>
       </c>
       <c r="H1136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>837503.9743154701</v>
       </c>
       <c r="H1137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>818312.0071154701</v>
       </c>
       <c r="H1138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>900138.7448154702</v>
       </c>
       <c r="H1139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>891707.0493785501</v>
       </c>
       <c r="H1140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>877953.8258785502</v>
       </c>
       <c r="H1141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>832552.0003785501</v>
       </c>
       <c r="H1142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -30110,7 +30110,7 @@
         <v>752476.0831785501</v>
       </c>
       <c r="H1143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1144" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>686395.5476785501</v>
       </c>
       <c r="H1144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>636332.03444373</v>
       </c>
       <c r="H1149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>613695.8128477701</v>
       </c>
       <c r="H1150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
